--- a/后端/res_file/spide_data/游戏/2025032712/游戏_巫师3/BV1Ro4y1A7Jv_巫师3拓海的入坑指南_2025032712.xlsx
+++ b/后端/res_file/spide_data/游戏/2025032712/游戏_巫师3/BV1Ro4y1A7Jv_巫师3拓海的入坑指南_2025032712.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="198">
   <si>
     <t>bvid</t>
   </si>
@@ -46,747 +46,584 @@
     <t>time</t>
   </si>
   <si>
+    <t>emotion</t>
+  </si>
+  <si>
     <t>BV1Ro4y1A7Jv</t>
   </si>
   <si>
-    <t>364809934</t>
-  </si>
-  <si>
     <t>清水さん</t>
   </si>
   <si>
+    <t>lonen4</t>
+  </si>
+  <si>
+    <t>七夏NN</t>
+  </si>
+  <si>
+    <t>纹香蝌蚪-</t>
+  </si>
+  <si>
+    <t>言印</t>
+  </si>
+  <si>
+    <t>航哥能量2</t>
+  </si>
+  <si>
+    <t>汪汪不会弹琴</t>
+  </si>
+  <si>
+    <t>ll溜了</t>
+  </si>
+  <si>
+    <t>殺生鱼丸丸</t>
+  </si>
+  <si>
+    <t>GO_JOHNNY-GO</t>
+  </si>
+  <si>
+    <t>开水且烫嘴</t>
+  </si>
+  <si>
+    <t>中年不休</t>
+  </si>
+  <si>
+    <t>cherless2</t>
+  </si>
+  <si>
+    <t>虫子爱看书</t>
+  </si>
+  <si>
+    <t>空想メ</t>
+  </si>
+  <si>
+    <t>MXWENS</t>
+  </si>
+  <si>
+    <t>小朋友们大家好</t>
+  </si>
+  <si>
+    <t>踮起脚尖比你高</t>
+  </si>
+  <si>
+    <t>捡漏狂魔</t>
+  </si>
+  <si>
+    <t>龙龙龙龙龙哒</t>
+  </si>
+  <si>
+    <t>划水摸鱼真君_</t>
+  </si>
+  <si>
+    <t>掩面的萨提尔</t>
+  </si>
+  <si>
+    <t>彼女ミサカ</t>
+  </si>
+  <si>
+    <t>梵梵o_O</t>
+  </si>
+  <si>
+    <t>狮子歌格</t>
+  </si>
+  <si>
+    <t>徐静雨の硬鲸</t>
+  </si>
+  <si>
+    <t>bili_81411941727</t>
+  </si>
+  <si>
+    <t>凌阳供货方</t>
+  </si>
+  <si>
+    <t>la_une</t>
+  </si>
+  <si>
+    <t>总逐清风归</t>
+  </si>
+  <si>
+    <t>限量版懒虫灬</t>
+  </si>
+  <si>
+    <t>过氧化所罗门</t>
+  </si>
+  <si>
+    <t>猹猹走不动了</t>
+  </si>
+  <si>
+    <t>大魔王接吻</t>
+  </si>
+  <si>
+    <t>滚来滚去的希露菲</t>
+  </si>
+  <si>
+    <t>罗德岛的皇带鱼</t>
+  </si>
+  <si>
+    <t>无敌奈克瑟斯奥特曼</t>
+  </si>
+  <si>
+    <t>问题多小姐</t>
+  </si>
+  <si>
+    <t>宇智波囧魂</t>
+  </si>
+  <si>
+    <t>眼睛裂开了</t>
+  </si>
+  <si>
+    <t>一颗芝麻gao</t>
+  </si>
+  <si>
+    <t>狸奴小鱼</t>
+  </si>
+  <si>
+    <t>你还在我的记忆里吗</t>
+  </si>
+  <si>
+    <t>灌水柠檬</t>
+  </si>
+  <si>
+    <t>咬寒</t>
+  </si>
+  <si>
+    <t>米虫的黑米</t>
+  </si>
+  <si>
+    <t>星航者发现号N1</t>
+  </si>
+  <si>
+    <t>SBGLnmd</t>
+  </si>
+  <si>
+    <t>账号已注销</t>
+  </si>
+  <si>
+    <t>王_白</t>
+  </si>
+  <si>
+    <t>OptifineHD</t>
+  </si>
+  <si>
+    <t>食蜂鸟</t>
+  </si>
+  <si>
+    <t>烈火雄风塞巴斯塔</t>
+  </si>
+  <si>
+    <t>捡女孩的小垃圾</t>
+  </si>
+  <si>
+    <t>不想出操</t>
+  </si>
+  <si>
+    <t>黑三君尼酱</t>
+  </si>
+  <si>
+    <t>沙雕幼儿园老大</t>
+  </si>
+  <si>
+    <t>蜀黍好丶</t>
+  </si>
+  <si>
+    <t>三三0610</t>
+  </si>
+  <si>
+    <t>药师兜兜兜兜</t>
+  </si>
+  <si>
     <t>保密</t>
   </si>
   <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
     <t>未知</t>
   </si>
   <si>
     <t>我怎么进去就是洗澡跟裸女啊[微笑]</t>
   </si>
   <si>
+    <t>[doge]steam，30完整版，刚找到叶奈法[脱单doge]，我宣布叶奈法就是我老婆</t>
+  </si>
+  <si>
+    <t>我寻思着打折玩一下，狮鹫没打完我就卸了，剧情游戏，不是动作游戏，打击一点反馈都没有，我第一次玩这种没打击反馈的游戏，第一次玩这种没打击感的，不适合我[笑哭][笑哭]</t>
+  </si>
+  <si>
+    <t>之前的任务没找到宝箱，还能回去找吗，没有快速传送啊</t>
+  </si>
+  <si>
+    <t>巫师3和老滚5先玩哪个</t>
+  </si>
+  <si>
+    <t>我最近刚打完真三国无双起源，又玩巫师三，感觉键位一下改变有点不适应</t>
+  </si>
+  <si>
+    <t>牛逼up</t>
+  </si>
+  <si>
+    <t>为毛我的显示一开始是4比3，不知道点了什么变成16比9了，有兄弟知道怎么改回去吗？看着好难受啊</t>
+  </si>
+  <si>
+    <t>已经在下载了，先来看看教程</t>
+  </si>
+  <si>
+    <t>大镖客玩了200小时左右，有点担心玩不下去巫师三</t>
+  </si>
+  <si>
+    <t>猎魔人装备不是后期最强的吧，我现在50级了，身上还穿着40级的狮鹫派套装[笑哭]</t>
+  </si>
+  <si>
+    <t>看了4000多条所有评论，做这个视频的时候up还只有3w粉丝，现在10倍了！不是说付出就有回报，而是必须有自己的特色，up就是干货干货还是干货！所以有人觉得太难，有人觉得过瘾。</t>
+  </si>
+  <si>
+    <t>几乎把所有主要游戏玩法都说了，新人看了可能劝退，最好不要说太细，留给玩家自己探索。</t>
+  </si>
+  <si>
+    <t>有没有改善游戏体验的MOD推荐，比如战斗更加流畅但难度不会降低，比如游戏中过于繁琐的部分简化[蹲蹲]</t>
+  </si>
+  <si>
+    <t>请问可攻略角色需要注意什么？哪些攻略不冲突啊？</t>
+  </si>
+  <si>
+    <t>有手柄的建议用手柄，键盘操作有点难受</t>
+  </si>
+  <si>
+    <t>这是你本人吗，还是盗用你文案的，小黑盒巫师三热评第一个</t>
+  </si>
+  <si>
+    <t>这游戏没想到我会玩下去 还特别有意思感觉</t>
+  </si>
+  <si>
+    <t>就在今天，仍然有25个小伙伴一同观看！[打call] 属于保姆级教学了！</t>
+  </si>
+  <si>
+    <t>想问下这游戏有没有一种道具，就是用了直接回到附近的传送点那种？</t>
+  </si>
+  <si>
+    <t>一直看攻略的时候，看到这一句话，一开始也没什么，突然感觉不对[喜极而泣]，“这两天连玩八天”</t>
+  </si>
+  <si>
+    <t>原来这游戏当海王是有代价的啊，那完了，女角色我是见一个爱一个[笑哭]</t>
+  </si>
+  <si>
+    <t>萌新想问下生死攸关完成后还能找特莉丝吗，我还有个士兵雕像的任务找她，结果找不到了</t>
+  </si>
+  <si>
+    <t>玩的我晕晕的，玩了俩个小时</t>
+  </si>
+  <si>
+    <t>这个是什么意思啊</t>
+  </si>
+  <si>
+    <t>萌新想问一下打到后期装备起来了能随便遇到个村庄就屠戮一番嘛，我新手刚去个村子对着空气挥几拳就把男孩吓跑了，完事和卫队pk还没打过，刚去个酒馆还被俩货一顿骂，我想报仇[生气][生气]</t>
+  </si>
+  <si>
+    <t>看过那么多什么最细教学，感觉就这个是真的细。</t>
+  </si>
+  <si>
+    <t>Up，之前我买了巫师三狂猎完全版本，这个是不是就是最新的版本了？我看有可以传送路牌</t>
+  </si>
+  <si>
+    <t>这讲的也太复杂了，新人看完都被你吓走了</t>
+  </si>
+  <si>
+    <t>本体是次世代版本吗，还是说只有年度版是次世代版本？【cube_惊讶】</t>
+  </si>
+  <si>
+    <t>玩完2077，想试试同样厂商的作品，看了这个视频还是算了吧，完全是两个类型的游戏[笑哭]</t>
+  </si>
+  <si>
+    <t>画风太怪了 虽然是次世代画面 感觉很难受 天国拯救＋大表哥2[藏狐]</t>
+  </si>
+  <si>
+    <t>现在改不了游戏难度了完全找不到[再见]</t>
+  </si>
+  <si>
+    <t>这游戏比法环还要难</t>
+  </si>
+  <si>
+    <t>13:00那里的bgm是巨人的吗</t>
+  </si>
+  <si>
+    <t>我steam买的正版但不知道为什么画面特别黑，屋子里直接看不见，按网上的参数调了还是不行</t>
+  </si>
+  <si>
+    <t>没有血与酒的DLC咋办啊宗师套原来也做不了[大哭][大哭]</t>
+  </si>
+  <si>
+    <t>画风不太喜欢，剧情挺好，太可惜了</t>
+  </si>
+  <si>
+    <t>和up相反，没玩过2代的也建议开启模拟二代存档，不然会少剧情和npc，就不完整了。不了解这个人物查一下不就完了，现在网上这么多讲解视频，好多讲巫师2剧情的也就20分钟左右，可以了解个大概了。</t>
+  </si>
+  <si>
+    <t>完了两个小时，喝完酒晕了，我说的不是主角晕，是我晕，一大堆的技能栏一次性塞进去，很难受</t>
+  </si>
+  <si>
+    <t>新手进来先学习一下，不剧透真的很照顾新人了，虽然我不怕剧透哈哈哈哈</t>
+  </si>
+  <si>
+    <t>点开地图 右下角的详细小地图怎么缩小啊</t>
+  </si>
+  <si>
+    <t>纯白拉法德的配方怎么获得？</t>
+  </si>
+  <si>
+    <t>跟大表哥2一样属于那种慢热的作品，还是比较吃人的</t>
+  </si>
+  <si>
+    <t>01:33我倒回去看了三遍，到底是谁创造了猎魔人。你说是人类吧但是up用的是“它们”不是“他们”，你说是非人族吧但是这玩意叫“猎魔人”不是“猎人魔”[辣眼睛]</t>
+  </si>
+  <si>
+    <t>这个有剧情流程吗，就是剧情结束游戏就结束，还是</t>
+  </si>
+  <si>
+    <t>十年前的圣诞节在steam买了一个123合集，一共才75块，结果能玩的下去的只有3，1和2固定视角加操作反人类根本没法玩</t>
+  </si>
+  <si>
+    <t>为什么我的大师级护甲匠不能打造高等和极品狼派胸甲而鞋子裤子手套却可以，我的物品栏明明有这两个图纸但护甲匠却没有这个选项，只能打造普通和强化的，这是出什么bug了吗</t>
+  </si>
+  <si>
+    <t>作为一个先玩过大表哥和法环只狼的人，去玩巫师三的时候被那对比起来粗糙的建模，画质，💩一样的战斗系统差点劝退。但慢慢玩了十几小时就完全被剧情给吸引住了，因为法环的缘故，游戏每个犄角旮旯里的信件和书我都逐字翻阅，完全沉浸在那个中世纪世界里。虽说那个战斗系统还是太💩了</t>
+  </si>
+  <si>
+    <t>有没有老哥解答一下，游戏里所有的昆特牌任务不做的话有什么影响吗</t>
+  </si>
+  <si>
+    <t>几年前稀里糊涂通关如今回来打二周目，看了up的视频学到了很多[doge_金箍]。但是感觉没有搞明白视频的受众，开局说不会有剧透，但是内容里后期才会接触的东西一套一套的，比如回血手段这里，真正的新手你只要告诉他有技能、嗑药、吃饭这几个主要手段，然后魔药是什么煎药是什么解释一下就好，把每个具体手段都写出来只会让新人根本听不懂在说什么，全视频充斥着大量短时间内用不到的信息使得视频质量下降了</t>
+  </si>
+  <si>
+    <t>说实话 战斗体验究极差</t>
+  </si>
+  <si>
+    <t>到血腥男爵那里了，还能回到皇宫和第一章吗？没拿装备就走了</t>
+  </si>
+  <si>
+    <t>[藏狐]我靠，我好多都不知道</t>
+  </si>
+  <si>
+    <t>我这玩了个啥，21年通关的，没用过拜年，也没玩过流派，药都没喝过，就通关了[笑哭]</t>
+  </si>
+  <si>
+    <t>看着好复杂</t>
+  </si>
+  <si>
+    <t>看起来好有意思，冬促打折准备买了[星星眼]</t>
+  </si>
+  <si>
+    <t>bgm好吵</t>
+  </si>
+  <si>
+    <t>8折入手了</t>
+  </si>
+  <si>
+    <t>刚打完林中夫人任务，男爵自杀了，想重开[笑哭]</t>
+  </si>
+  <si>
     <t>2025-03-24 18:18:42</t>
   </si>
   <si>
-    <t>88714590</t>
-  </si>
-  <si>
-    <t>lonen4</t>
-  </si>
-  <si>
-    <t>[doge]steam，30完整版，刚找到叶奈法[脱单doge]，我宣布叶奈法就是我老婆</t>
-  </si>
-  <si>
     <t>2025-03-18 21:42:38</t>
   </si>
   <si>
-    <t>1732690155</t>
-  </si>
-  <si>
-    <t>七夏NN</t>
-  </si>
-  <si>
-    <t>我寻思着打折玩一下，狮鹫没打完我就卸了，剧情游戏，不是动作游戏，打击一点反馈都没有，我第一次玩这种没打击反馈的游戏，第一次玩这种没打击感的，不适合我[笑哭][笑哭]</t>
-  </si>
-  <si>
     <t>2025-03-18 21:05:54</t>
   </si>
   <si>
-    <t>412835816</t>
-  </si>
-  <si>
-    <t>纹香蝌蚪-</t>
-  </si>
-  <si>
-    <t>之前的任务没找到宝箱，还能回去找吗，没有快速传送啊</t>
-  </si>
-  <si>
     <t>2025-03-17 12:28:09</t>
   </si>
   <si>
-    <t>16945666</t>
-  </si>
-  <si>
-    <t>言印</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>巫师3和老滚5先玩哪个</t>
-  </si>
-  <si>
     <t>2025-03-14 13:38:07</t>
   </si>
   <si>
-    <t>1030497046</t>
-  </si>
-  <si>
-    <t>航哥能量2</t>
-  </si>
-  <si>
-    <t>我最近刚打完真三国无双起源，又玩巫师三，感觉键位一下改变有点不适应</t>
-  </si>
-  <si>
     <t>2025-03-12 10:25:37</t>
   </si>
   <si>
-    <t>8977681</t>
-  </si>
-  <si>
-    <t>汪汪不会弹琴</t>
-  </si>
-  <si>
-    <t>牛逼up</t>
-  </si>
-  <si>
     <t>2025-03-10 23:08:15</t>
   </si>
   <si>
-    <t>1658255974</t>
-  </si>
-  <si>
-    <t>ll溜了</t>
-  </si>
-  <si>
-    <t>为毛我的显示一开始是4比3，不知道点了什么变成16比9了，有兄弟知道怎么改回去吗？看着好难受啊</t>
-  </si>
-  <si>
     <t>2025-03-10 10:43:34</t>
   </si>
   <si>
-    <t>449679483</t>
-  </si>
-  <si>
-    <t>殺生鱼丸丸</t>
-  </si>
-  <si>
-    <t>已经在下载了，先来看看教程</t>
-  </si>
-  <si>
     <t>2025-03-05 19:54:31</t>
   </si>
   <si>
-    <t>3493298689804672</t>
-  </si>
-  <si>
-    <t>GO_JOHNNY-GO</t>
-  </si>
-  <si>
-    <t>大镖客玩了200小时左右，有点担心玩不下去巫师三</t>
-  </si>
-  <si>
     <t>2025-03-05 12:50:20</t>
   </si>
   <si>
-    <t>382997187</t>
-  </si>
-  <si>
-    <t>开水且烫嘴</t>
-  </si>
-  <si>
-    <t>猎魔人装备不是后期最强的吧，我现在50级了，身上还穿着40级的狮鹫派套装[笑哭]</t>
-  </si>
-  <si>
     <t>2025-03-04 16:00:02</t>
   </si>
   <si>
-    <t>688595204</t>
-  </si>
-  <si>
-    <t>中年不休</t>
-  </si>
-  <si>
-    <t>看了4000多条所有评论，做这个视频的时候up还只有3w粉丝，现在10倍了！不是说付出就有回报，而是必须有自己的特色，up就是干货干货还是干货！所以有人觉得太难，有人觉得过瘾。</t>
-  </si>
-  <si>
     <t>2025-03-02 17:46:42</t>
   </si>
   <si>
-    <t>21319341</t>
-  </si>
-  <si>
-    <t>cherless2</t>
-  </si>
-  <si>
-    <t>几乎把所有主要游戏玩法都说了，新人看了可能劝退，最好不要说太细，留给玩家自己探索。</t>
-  </si>
-  <si>
     <t>2025-02-27 18:52:10</t>
   </si>
   <si>
-    <t>13991475</t>
-  </si>
-  <si>
-    <t>虫子爱看书</t>
-  </si>
-  <si>
-    <t>有没有改善游戏体验的MOD推荐，比如战斗更加流畅但难度不会降低，比如游戏中过于繁琐的部分简化[蹲蹲]</t>
-  </si>
-  <si>
     <t>2025-02-25 19:36:10</t>
   </si>
   <si>
-    <t>240874250</t>
-  </si>
-  <si>
-    <t>空想メ</t>
-  </si>
-  <si>
-    <t>请问可攻略角色需要注意什么？哪些攻略不冲突啊？</t>
-  </si>
-  <si>
     <t>2025-02-19 01:03:40</t>
   </si>
   <si>
-    <t>2225859</t>
-  </si>
-  <si>
-    <t>MXWENS</t>
-  </si>
-  <si>
-    <t>有手柄的建议用手柄，键盘操作有点难受</t>
-  </si>
-  <si>
     <t>2025-02-15 02:45:37</t>
   </si>
   <si>
-    <t>412419</t>
-  </si>
-  <si>
-    <t>小朋友们大家好</t>
-  </si>
-  <si>
-    <t>这是你本人吗，还是盗用你文案的，小黑盒巫师三热评第一个</t>
-  </si>
-  <si>
     <t>2025-02-14 14:39:20</t>
   </si>
   <si>
-    <t>392371308</t>
-  </si>
-  <si>
-    <t>踮起脚尖比你高</t>
-  </si>
-  <si>
-    <t>这游戏没想到我会玩下去 还特别有意思感觉</t>
-  </si>
-  <si>
     <t>2025-02-10 22:43:07</t>
   </si>
   <si>
-    <t>267322236</t>
-  </si>
-  <si>
-    <t>捡漏狂魔</t>
-  </si>
-  <si>
-    <t>就在今天，仍然有25个小伙伴一同观看！[打call] 属于保姆级教学了！</t>
-  </si>
-  <si>
     <t>2025-02-10 14:02:04</t>
   </si>
   <si>
-    <t>18069864</t>
-  </si>
-  <si>
-    <t>龙龙龙龙龙哒</t>
-  </si>
-  <si>
-    <t>想问下这游戏有没有一种道具，就是用了直接回到附近的传送点那种？</t>
-  </si>
-  <si>
     <t>2025-02-09 14:20:43</t>
   </si>
   <si>
-    <t>1881713977</t>
-  </si>
-  <si>
-    <t>划水摸鱼真君_</t>
-  </si>
-  <si>
-    <t>一直看攻略的时候，看到这一句话，一开始也没什么，突然感觉不对[喜极而泣]，“这两天连玩八天”</t>
-  </si>
-  <si>
     <t>2025-02-07 18:24:43</t>
   </si>
   <si>
-    <t>38546957</t>
-  </si>
-  <si>
-    <t>掩面的萨提尔</t>
-  </si>
-  <si>
-    <t>原来这游戏当海王是有代价的啊，那完了，女角色我是见一个爱一个[笑哭]</t>
-  </si>
-  <si>
     <t>2025-02-07 09:54:20</t>
   </si>
   <si>
-    <t>363235503</t>
-  </si>
-  <si>
-    <t>彼女ミサカ</t>
-  </si>
-  <si>
-    <t>萌新想问下生死攸关完成后还能找特莉丝吗，我还有个士兵雕像的任务找她，结果找不到了</t>
-  </si>
-  <si>
     <t>2025-02-06 14:16:33</t>
   </si>
   <si>
-    <t>484598574</t>
-  </si>
-  <si>
-    <t>梵梵o_O</t>
-  </si>
-  <si>
-    <t>玩的我晕晕的，玩了俩个小时</t>
-  </si>
-  <si>
     <t>2025-02-05 04:40:15</t>
   </si>
   <si>
-    <t>3546667540286319</t>
-  </si>
-  <si>
-    <t>狮子歌格</t>
-  </si>
-  <si>
-    <t>这个是什么意思啊</t>
-  </si>
-  <si>
     <t>2025-02-04 14:48:49</t>
   </si>
   <si>
-    <t>282460970</t>
-  </si>
-  <si>
-    <t>徐静雨の硬鲸</t>
-  </si>
-  <si>
-    <t>萌新想问一下打到后期装备起来了能随便遇到个村庄就屠戮一番嘛，我新手刚去个村子对着空气挥几拳就把男孩吓跑了，完事和卫队pk还没打过，刚去个酒馆还被俩货一顿骂，我想报仇[生气][生气]</t>
-  </si>
-  <si>
     <t>2025-02-03 20:36:02</t>
   </si>
   <si>
-    <t>1482114399</t>
-  </si>
-  <si>
-    <t>bili_81411941727</t>
-  </si>
-  <si>
-    <t>看过那么多什么最细教学，感觉就这个是真的细。</t>
-  </si>
-  <si>
     <t>2025-02-03 16:51:26</t>
   </si>
   <si>
-    <t>38006582</t>
-  </si>
-  <si>
-    <t>凌阳供货方</t>
-  </si>
-  <si>
-    <t>Up，之前我买了巫师三狂猎完全版本，这个是不是就是最新的版本了？我看有可以传送路牌</t>
-  </si>
-  <si>
     <t>2025-02-03 02:43:31</t>
   </si>
   <si>
-    <t>45374320</t>
-  </si>
-  <si>
-    <t>la_une</t>
-  </si>
-  <si>
-    <t>这讲的也太复杂了，新人看完都被你吓走了</t>
-  </si>
-  <si>
     <t>2025-02-02 06:11:45</t>
   </si>
   <si>
-    <t>521231954</t>
-  </si>
-  <si>
-    <t>总逐清风归</t>
-  </si>
-  <si>
-    <t>本体是次世代版本吗，还是说只有年度版是次世代版本？【cube_惊讶】</t>
-  </si>
-  <si>
     <t>2025-01-30 20:45:52</t>
   </si>
   <si>
-    <t>304488220</t>
-  </si>
-  <si>
-    <t>限量版懒虫灬</t>
-  </si>
-  <si>
-    <t>玩完2077，想试试同样厂商的作品，看了这个视频还是算了吧，完全是两个类型的游戏[笑哭]</t>
-  </si>
-  <si>
     <t>2025-01-28 02:39:03</t>
   </si>
   <si>
-    <t>1660077403</t>
-  </si>
-  <si>
-    <t>过氧化所罗门</t>
-  </si>
-  <si>
-    <t>画风太怪了 虽然是次世代画面 感觉很难受 天国拯救＋大表哥2[藏狐]</t>
-  </si>
-  <si>
     <t>2025-01-27 17:41:33</t>
   </si>
   <si>
-    <t>382744833</t>
-  </si>
-  <si>
-    <t>猹猹走不动了</t>
-  </si>
-  <si>
-    <t>现在改不了游戏难度了完全找不到[再见]</t>
-  </si>
-  <si>
     <t>2025-01-27 17:07:56</t>
   </si>
   <si>
-    <t>456540910</t>
-  </si>
-  <si>
-    <t>大魔王接吻</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>这游戏比法环还要难</t>
-  </si>
-  <si>
     <t>2025-01-22 20:06:27</t>
   </si>
   <si>
-    <t>350912927</t>
-  </si>
-  <si>
-    <t>滚来滚去的希露菲</t>
-  </si>
-  <si>
-    <t>13:00那里的bgm是巨人的吗</t>
-  </si>
-  <si>
     <t>2025-01-21 15:29:00</t>
   </si>
   <si>
-    <t>281240106</t>
-  </si>
-  <si>
-    <t>罗德岛的皇带鱼</t>
-  </si>
-  <si>
-    <t>我steam买的正版但不知道为什么画面特别黑，屋子里直接看不见，按网上的参数调了还是不行</t>
-  </si>
-  <si>
     <t>2025-01-21 11:07:12</t>
   </si>
   <si>
-    <t>3546563515255780</t>
-  </si>
-  <si>
-    <t>无敌奈克瑟斯奥特曼</t>
-  </si>
-  <si>
-    <t>没有血与酒的DLC咋办啊宗师套原来也做不了[大哭][大哭]</t>
-  </si>
-  <si>
     <t>2025-01-20 04:50:49</t>
   </si>
   <si>
-    <t>311805793</t>
-  </si>
-  <si>
-    <t>问题多小姐</t>
-  </si>
-  <si>
-    <t>画风不太喜欢，剧情挺好，太可惜了</t>
-  </si>
-  <si>
     <t>2025-01-16 00:14:17</t>
   </si>
   <si>
-    <t>2723683</t>
-  </si>
-  <si>
-    <t>宇智波囧魂</t>
-  </si>
-  <si>
-    <t>和up相反，没玩过2代的也建议开启模拟二代存档，不然会少剧情和npc，就不完整了。不了解这个人物查一下不就完了，现在网上这么多讲解视频，好多讲巫师2剧情的也就20分钟左右，可以了解个大概了。</t>
-  </si>
-  <si>
     <t>2025-01-13 16:14:24</t>
   </si>
   <si>
-    <t>1864916498</t>
-  </si>
-  <si>
-    <t>眼睛裂开了</t>
-  </si>
-  <si>
-    <t>完了两个小时，喝完酒晕了，我说的不是主角晕，是我晕，一大堆的技能栏一次性塞进去，很难受</t>
-  </si>
-  <si>
     <t>2025-01-12 17:01:50</t>
   </si>
   <si>
-    <t>2101307</t>
-  </si>
-  <si>
-    <t>一颗芝麻gao</t>
-  </si>
-  <si>
-    <t>新手进来先学习一下，不剧透真的很照顾新人了，虽然我不怕剧透哈哈哈哈</t>
-  </si>
-  <si>
     <t>2025-01-12 13:16:55</t>
   </si>
   <si>
-    <t>4958812</t>
-  </si>
-  <si>
-    <t>狸奴小鱼</t>
-  </si>
-  <si>
-    <t>点开地图 右下角的详细小地图怎么缩小啊</t>
-  </si>
-  <si>
     <t>2025-01-10 00:33:00</t>
   </si>
   <si>
-    <t>3461567299455079</t>
-  </si>
-  <si>
-    <t>你还在我的记忆里吗</t>
-  </si>
-  <si>
-    <t>纯白拉法德的配方怎么获得？</t>
-  </si>
-  <si>
     <t>2025-01-08 09:59:26</t>
   </si>
   <si>
-    <t>474066038</t>
-  </si>
-  <si>
-    <t>灌水柠檬</t>
-  </si>
-  <si>
-    <t>跟大表哥2一样属于那种慢热的作品，还是比较吃人的</t>
-  </si>
-  <si>
     <t>2025-01-07 19:34:09</t>
   </si>
   <si>
-    <t>13772852</t>
-  </si>
-  <si>
-    <t>咬寒</t>
-  </si>
-  <si>
-    <t>01:33我倒回去看了三遍，到底是谁创造了猎魔人。你说是人类吧但是up用的是“它们”不是“他们”，你说是非人族吧但是这玩意叫“猎魔人”不是“猎人魔”[辣眼睛]</t>
-  </si>
-  <si>
     <t>2025-01-07 17:19:31</t>
   </si>
   <si>
-    <t>279701522</t>
-  </si>
-  <si>
-    <t>米虫的黑米</t>
-  </si>
-  <si>
-    <t>这个有剧情流程吗，就是剧情结束游戏就结束，还是</t>
-  </si>
-  <si>
     <t>2025-01-06 00:12:40</t>
   </si>
   <si>
-    <t>36172697</t>
-  </si>
-  <si>
-    <t>星航者发现号N1</t>
-  </si>
-  <si>
-    <t>十年前的圣诞节在steam买了一个123合集，一共才75块，结果能玩的下去的只有3，1和2固定视角加操作反人类根本没法玩</t>
-  </si>
-  <si>
     <t>2025-01-02 10:17:49</t>
   </si>
   <si>
-    <t>3494358886124241</t>
-  </si>
-  <si>
-    <t>SBGLnmd</t>
-  </si>
-  <si>
-    <t>为什么我的大师级护甲匠不能打造高等和极品狼派胸甲而鞋子裤子手套却可以，我的物品栏明明有这两个图纸但护甲匠却没有这个选项，只能打造普通和强化的，这是出什么bug了吗</t>
-  </si>
-  <si>
     <t>2024-12-29 10:56:17</t>
   </si>
   <si>
-    <t>470495711</t>
-  </si>
-  <si>
-    <t>账号已注销</t>
-  </si>
-  <si>
-    <t>作为一个先玩过大表哥和法环只狼的人，去玩巫师三的时候被那对比起来粗糙的建模，画质，💩一样的战斗系统差点劝退。但慢慢玩了十几小时就完全被剧情给吸引住了，因为法环的缘故，游戏每个犄角旮旯里的信件和书我都逐字翻阅，完全沉浸在那个中世纪世界里。虽说那个战斗系统还是太💩了</t>
-  </si>
-  <si>
     <t>2024-12-28 17:28:41</t>
   </si>
   <si>
-    <t>521972383</t>
-  </si>
-  <si>
-    <t>王_白</t>
-  </si>
-  <si>
-    <t>有没有老哥解答一下，游戏里所有的昆特牌任务不做的话有什么影响吗</t>
-  </si>
-  <si>
     <t>2024-12-27 12:05:06</t>
   </si>
   <si>
-    <t>36133682</t>
-  </si>
-  <si>
-    <t>OptifineHD</t>
-  </si>
-  <si>
-    <t>几年前稀里糊涂通关如今回来打二周目，看了up的视频学到了很多[doge_金箍]。但是感觉没有搞明白视频的受众，开局说不会有剧透，但是内容里后期才会接触的东西一套一套的，比如回血手段这里，真正的新手你只要告诉他有技能、嗑药、吃饭这几个主要手段，然后魔药是什么煎药是什么解释一下就好，把每个具体手段都写出来只会让新人根本听不懂在说什么，全视频充斥着大量短时间内用不到的信息使得视频质量下降了</t>
-  </si>
-  <si>
     <t>2024-12-27 01:33:24</t>
   </si>
   <si>
-    <t>151073773</t>
-  </si>
-  <si>
-    <t>食蜂鸟</t>
-  </si>
-  <si>
-    <t>说实话 战斗体验究极差</t>
-  </si>
-  <si>
     <t>2024-12-26 16:52:15</t>
   </si>
   <si>
-    <t>2859391</t>
-  </si>
-  <si>
-    <t>烈火雄风塞巴斯塔</t>
-  </si>
-  <si>
-    <t>到血腥男爵那里了，还能回到皇宫和第一章吗？没拿装备就走了</t>
-  </si>
-  <si>
     <t>2024-12-26 13:04:19</t>
   </si>
   <si>
-    <t>41089436</t>
-  </si>
-  <si>
-    <t>捡女孩的小垃圾</t>
-  </si>
-  <si>
-    <t>[藏狐]我靠，我好多都不知道</t>
-  </si>
-  <si>
     <t>2024-12-26 11:50:55</t>
   </si>
   <si>
-    <t>480057129</t>
-  </si>
-  <si>
-    <t>不想出操</t>
-  </si>
-  <si>
-    <t>我这玩了个啥，21年通关的，没用过拜年，也没玩过流派，药都没喝过，就通关了[笑哭]</t>
-  </si>
-  <si>
     <t>2024-12-24 15:34:16</t>
   </si>
   <si>
-    <t>44274840</t>
-  </si>
-  <si>
-    <t>黑三君尼酱</t>
-  </si>
-  <si>
-    <t>看着好复杂</t>
-  </si>
-  <si>
     <t>2024-12-21 23:57:09</t>
   </si>
   <si>
-    <t>2065706</t>
-  </si>
-  <si>
-    <t>沙雕幼儿园老大</t>
-  </si>
-  <si>
-    <t>看起来好有意思，冬促打折准备买了[星星眼]</t>
-  </si>
-  <si>
     <t>2024-12-21 20:32:13</t>
   </si>
   <si>
-    <t>1330085</t>
-  </si>
-  <si>
-    <t>蜀黍好丶</t>
-  </si>
-  <si>
-    <t>bgm好吵</t>
-  </si>
-  <si>
     <t>2024-12-21 02:21:22</t>
   </si>
   <si>
-    <t>507180590</t>
-  </si>
-  <si>
-    <t>三三0610</t>
-  </si>
-  <si>
-    <t>8折入手了</t>
-  </si>
-  <si>
     <t>2024-12-20 07:50:28</t>
   </si>
   <si>
-    <t>1863589612</t>
-  </si>
-  <si>
-    <t>药师兜兜兜兜</t>
-  </si>
-  <si>
-    <t>刚打完林中夫人任务，男爵自杀了，想重开[笑哭]</t>
-  </si>
-  <si>
     <t>2024-12-20 00:21:04</t>
+  </si>
+  <si>
+    <t>消极</t>
+  </si>
+  <si>
+    <t>积极</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -802,7 +639,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -810,12 +647,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1110,705 +965,768 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>258585000496</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
+      <c r="C2">
+        <v>364809934</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F2">
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>136</v>
+      </c>
+      <c r="K2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>257316727377</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
+      <c r="C3">
+        <v>88714590</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F3">
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>137</v>
+      </c>
+      <c r="K3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>257313656785</v>
       </c>
-      <c r="C4" t="s">
-        <v>21</v>
+      <c r="C4">
+        <v>1732690155</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>138</v>
+      </c>
+      <c r="K4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>257990676336</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
+      <c r="C5">
+        <v>412835816</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>139</v>
+      </c>
+      <c r="K5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>256948842609</v>
       </c>
-      <c r="C6" t="s">
-        <v>29</v>
+      <c r="C6">
+        <v>16945666</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F6">
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>140</v>
+      </c>
+      <c r="K6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>257559089024</v>
       </c>
-      <c r="C7" t="s">
-        <v>34</v>
+      <c r="C7">
+        <v>1030497046</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>141</v>
+      </c>
+      <c r="K7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>256683249553</v>
       </c>
-      <c r="C8" t="s">
-        <v>38</v>
+      <c r="C8">
+        <v>8977681</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F8">
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>142</v>
+      </c>
+      <c r="K8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>256631867921</v>
       </c>
-      <c r="C9" t="s">
-        <v>42</v>
+      <c r="C9">
+        <v>1658255974</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F9">
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>143</v>
+      </c>
+      <c r="K9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>256269844833</v>
       </c>
-      <c r="C10" t="s">
-        <v>46</v>
+      <c r="C10">
+        <v>449679483</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F10">
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="K10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>256242211153</v>
       </c>
-      <c r="C11" t="s">
-        <v>50</v>
+      <c r="C11">
+        <v>3493298689804672</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F11">
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>145</v>
+      </c>
+      <c r="K11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>256176149441</v>
       </c>
-      <c r="C12" t="s">
-        <v>54</v>
+      <c r="C12">
+        <v>382997187</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F12">
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>146</v>
+      </c>
+      <c r="K12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>256776800400</v>
       </c>
-      <c r="C13" t="s">
-        <v>58</v>
+      <c r="C13">
+        <v>688595204</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F13">
         <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>147</v>
+      </c>
+      <c r="K13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>256507333712</v>
       </c>
-      <c r="C14" t="s">
-        <v>62</v>
+      <c r="C14">
+        <v>21319341</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F14">
         <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>148</v>
+      </c>
+      <c r="K14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>255616975265</v>
       </c>
-      <c r="C15" t="s">
-        <v>66</v>
+      <c r="C15">
+        <v>13991475</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F15">
         <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>149</v>
+      </c>
+      <c r="K15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>255062526929</v>
       </c>
-      <c r="C16" t="s">
-        <v>70</v>
+      <c r="C16">
+        <v>240874250</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F16">
         <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H16" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>254718583025</v>
       </c>
-      <c r="C17" t="s">
-        <v>74</v>
+      <c r="C17">
+        <v>2225859</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F17">
         <v>6</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>151</v>
+      </c>
+      <c r="K17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>255350484048</v>
       </c>
-      <c r="C18" t="s">
-        <v>78</v>
+      <c r="C18">
+        <v>412419</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F18">
         <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>152</v>
+      </c>
+      <c r="K18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>254997725008</v>
       </c>
-      <c r="C19" t="s">
-        <v>82</v>
+      <c r="C19">
+        <v>392371308</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F19">
         <v>5</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>153</v>
+      </c>
+      <c r="K19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>254949391712</v>
       </c>
-      <c r="C20" t="s">
-        <v>86</v>
+      <c r="C20">
+        <v>267322236</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F20">
         <v>6</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H20" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>154</v>
+      </c>
+      <c r="K20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>254179735393</v>
       </c>
-      <c r="C21" t="s">
-        <v>90</v>
+      <c r="C21">
+        <v>18069864</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F21">
         <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H21" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>155</v>
+      </c>
+      <c r="K21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>254010240113</v>
       </c>
-      <c r="C22" t="s">
-        <v>94</v>
+      <c r="C22">
+        <v>1881713977</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F22">
         <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H22" t="s">
         <v>96</v>
@@ -1817,1255 +1735,1375 @@
         <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>156</v>
+      </c>
+      <c r="K22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>253968144945</v>
       </c>
-      <c r="C23" t="s">
-        <v>98</v>
+      <c r="C23">
+        <v>38546957</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F23">
         <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>157</v>
+      </c>
+      <c r="K23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>254559236768</v>
       </c>
-      <c r="C24" t="s">
-        <v>102</v>
+      <c r="C24">
+        <v>363235503</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F24">
         <v>5</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H24" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>158</v>
+      </c>
+      <c r="K24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>253774191825</v>
       </c>
-      <c r="C25" t="s">
-        <v>106</v>
+      <c r="C25">
+        <v>484598574</v>
       </c>
       <c r="D25" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F25">
         <v>5</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H25" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>159</v>
+      </c>
+      <c r="K25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26">
         <v>254369342928</v>
       </c>
-      <c r="C26" t="s">
-        <v>110</v>
+      <c r="C26">
+        <v>3546667540286319</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H26" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>160</v>
+      </c>
+      <c r="K26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27">
         <v>253651843297</v>
       </c>
-      <c r="C27" t="s">
-        <v>114</v>
+      <c r="C27">
+        <v>282460970</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F27">
         <v>6</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H27" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>161</v>
+      </c>
+      <c r="K27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28">
         <v>253631742849</v>
       </c>
-      <c r="C28" t="s">
-        <v>118</v>
+      <c r="C28">
+        <v>1482114399</v>
       </c>
       <c r="D28" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H28" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>162</v>
+      </c>
+      <c r="K28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>253588124529</v>
       </c>
-      <c r="C29" t="s">
-        <v>122</v>
+      <c r="C29">
+        <v>38006582</v>
       </c>
       <c r="D29" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F29">
         <v>6</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H29" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>163</v>
+      </c>
+      <c r="K29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30">
         <v>254146878480</v>
       </c>
-      <c r="C30" t="s">
-        <v>126</v>
+      <c r="C30">
+        <v>45374320</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F30">
         <v>6</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H30" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>164</v>
+      </c>
+      <c r="K30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B31">
         <v>253287861537</v>
       </c>
-      <c r="C31" t="s">
-        <v>130</v>
+      <c r="C31">
+        <v>521231954</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F31">
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>165</v>
+      </c>
+      <c r="K31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B32">
         <v>253673702896</v>
       </c>
-      <c r="C32" t="s">
-        <v>134</v>
+      <c r="C32">
+        <v>304488220</v>
       </c>
       <c r="D32" t="s">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F32">
         <v>5</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H32" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="I32">
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>166</v>
+      </c>
+      <c r="K32" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B33">
         <v>253627791952</v>
       </c>
-      <c r="C33" t="s">
-        <v>138</v>
+      <c r="C33">
+        <v>1660077403</v>
       </c>
       <c r="D33" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F33">
         <v>5</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H33" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>167</v>
+      </c>
+      <c r="K33" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B34">
         <v>253624828880</v>
       </c>
-      <c r="C34" t="s">
-        <v>142</v>
+      <c r="C34">
+        <v>382744833</v>
       </c>
       <c r="D34" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F34">
         <v>6</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H34" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>168</v>
+      </c>
+      <c r="K34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35">
         <v>253140302304</v>
       </c>
-      <c r="C35" t="s">
-        <v>146</v>
+      <c r="C35">
+        <v>456540910</v>
       </c>
       <c r="D35" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="F35">
         <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H35" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>169</v>
+      </c>
+      <c r="K35" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>253004950336</v>
       </c>
-      <c r="C36" t="s">
-        <v>151</v>
+      <c r="C36">
+        <v>350912927</v>
       </c>
       <c r="D36" t="s">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F36">
         <v>6</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H36" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>170</v>
+      </c>
+      <c r="K36" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37">
         <v>252982986000</v>
       </c>
-      <c r="C37" t="s">
-        <v>155</v>
+      <c r="C37">
+        <v>281240106</v>
       </c>
       <c r="D37" t="s">
-        <v>156</v>
+        <v>47</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F37">
         <v>6</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H37" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>171</v>
+      </c>
+      <c r="K37" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <v>252278331585</v>
       </c>
-      <c r="C38" t="s">
-        <v>159</v>
+      <c r="C38">
+        <v>3546563515255780</v>
       </c>
       <c r="D38" t="s">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F38">
         <v>4</v>
       </c>
       <c r="G38" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H38" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>172</v>
+      </c>
+      <c r="K38" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>251911579633</v>
       </c>
-      <c r="C39" t="s">
-        <v>163</v>
+      <c r="C39">
+        <v>311805793</v>
       </c>
       <c r="D39" t="s">
-        <v>164</v>
+        <v>49</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F39">
         <v>6</v>
       </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H39" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>173</v>
+      </c>
+      <c r="K39" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>251707479009</v>
       </c>
-      <c r="C40" t="s">
-        <v>167</v>
+      <c r="C40">
+        <v>2723683</v>
       </c>
       <c r="D40" t="s">
-        <v>168</v>
+        <v>50</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F40">
         <v>6</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H40" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>174</v>
+      </c>
+      <c r="K40" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>251627641681</v>
       </c>
-      <c r="C41" t="s">
-        <v>171</v>
+      <c r="C41">
+        <v>1864916498</v>
       </c>
       <c r="D41" t="s">
-        <v>172</v>
+        <v>51</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F41">
         <v>3</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H41" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>175</v>
+      </c>
+      <c r="K41" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B42">
         <v>252169896720</v>
       </c>
-      <c r="C42" t="s">
-        <v>175</v>
+      <c r="C42">
+        <v>2101307</v>
       </c>
       <c r="D42" t="s">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F42">
         <v>6</v>
       </c>
       <c r="G42" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H42" t="s">
-        <v>177</v>
+        <v>116</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>176</v>
+      </c>
+      <c r="K42" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B43">
         <v>251955620832</v>
       </c>
-      <c r="C43" t="s">
-        <v>179</v>
+      <c r="C43">
+        <v>4958812</v>
       </c>
       <c r="D43" t="s">
-        <v>180</v>
+        <v>53</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F43">
         <v>6</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H43" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>177</v>
+      </c>
+      <c r="K43" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B44">
         <v>251260775505</v>
       </c>
-      <c r="C44" t="s">
-        <v>183</v>
+      <c r="C44">
+        <v>3461567299455079</v>
       </c>
       <c r="D44" t="s">
-        <v>184</v>
+        <v>54</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F44">
         <v>4</v>
       </c>
       <c r="G44" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H44" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>178</v>
+      </c>
+      <c r="K44" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B45">
         <v>251760017312</v>
       </c>
-      <c r="C45" t="s">
-        <v>187</v>
+      <c r="C45">
+        <v>474066038</v>
       </c>
       <c r="D45" t="s">
-        <v>188</v>
+        <v>55</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F45">
         <v>6</v>
       </c>
       <c r="G45" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H45" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>179</v>
+      </c>
+      <c r="K45" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B46">
         <v>251209170801</v>
       </c>
-      <c r="C46" t="s">
-        <v>191</v>
+      <c r="C46">
+        <v>13772852</v>
       </c>
       <c r="D46" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="E46" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F46">
         <v>6</v>
       </c>
       <c r="G46" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H46" t="s">
-        <v>193</v>
+        <v>120</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>180</v>
+      </c>
+      <c r="K46" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B47">
         <v>251615061216</v>
       </c>
-      <c r="C47" t="s">
-        <v>195</v>
+      <c r="C47">
+        <v>279701522</v>
       </c>
       <c r="D47" t="s">
-        <v>196</v>
+        <v>57</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F47">
         <v>5</v>
       </c>
       <c r="G47" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H47" t="s">
-        <v>197</v>
+        <v>121</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>181</v>
+      </c>
+      <c r="K47" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B48">
         <v>250768494977</v>
       </c>
-      <c r="C48" t="s">
-        <v>199</v>
+      <c r="C48">
+        <v>36172697</v>
       </c>
       <c r="D48" t="s">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="E48" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F48">
         <v>6</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H48" t="s">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>182</v>
+      </c>
+      <c r="K48" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B49">
         <v>250933872480</v>
       </c>
-      <c r="C49" t="s">
-        <v>203</v>
+      <c r="C49">
+        <v>3494358886124241</v>
       </c>
       <c r="D49" t="s">
-        <v>204</v>
+        <v>59</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F49">
         <v>2</v>
       </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H49" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>183</v>
+      </c>
+      <c r="K49" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50">
         <v>250876309280</v>
       </c>
-      <c r="C50" t="s">
-        <v>207</v>
+      <c r="C50">
+        <v>470495711</v>
       </c>
       <c r="D50" t="s">
-        <v>208</v>
+        <v>60</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H50" t="s">
-        <v>209</v>
+        <v>124</v>
       </c>
       <c r="I50">
         <v>13</v>
       </c>
       <c r="J50" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>184</v>
+      </c>
+      <c r="K50" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51">
         <v>250272070801</v>
       </c>
-      <c r="C51" t="s">
-        <v>211</v>
+      <c r="C51">
+        <v>521972383</v>
       </c>
       <c r="D51" t="s">
-        <v>212</v>
+        <v>61</v>
       </c>
       <c r="E51" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F51">
         <v>5</v>
       </c>
       <c r="G51" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H51" t="s">
-        <v>213</v>
+        <v>125</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>185</v>
+      </c>
+      <c r="K51" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B52">
         <v>250251131713</v>
       </c>
-      <c r="C52" t="s">
-        <v>215</v>
+      <c r="C52">
+        <v>36133682</v>
       </c>
       <c r="D52" t="s">
-        <v>216</v>
+        <v>62</v>
       </c>
       <c r="E52" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F52">
         <v>6</v>
       </c>
       <c r="G52" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H52" t="s">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c r="I52">
         <v>8</v>
       </c>
       <c r="J52" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>186</v>
+      </c>
+      <c r="K52" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B53">
         <v>250211512481</v>
       </c>
-      <c r="C53" t="s">
-        <v>219</v>
+      <c r="C53">
+        <v>151073773</v>
       </c>
       <c r="D53" t="s">
-        <v>220</v>
+        <v>63</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F53">
         <v>6</v>
       </c>
       <c r="G53" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H53" t="s">
-        <v>221</v>
+        <v>127</v>
       </c>
       <c r="I53">
         <v>5</v>
       </c>
       <c r="J53" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K53" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B54">
         <v>250197449057</v>
       </c>
-      <c r="C54" t="s">
-        <v>223</v>
+      <c r="C54">
+        <v>2859391</v>
       </c>
       <c r="D54" t="s">
-        <v>224</v>
+        <v>64</v>
       </c>
       <c r="E54" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F54">
         <v>6</v>
       </c>
       <c r="G54" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H54" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>188</v>
+      </c>
+      <c r="K54" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B55">
         <v>250684309776</v>
       </c>
-      <c r="C55" t="s">
-        <v>227</v>
+      <c r="C55">
+        <v>41089436</v>
       </c>
       <c r="D55" t="s">
-        <v>228</v>
+        <v>65</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F55">
         <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H55" t="s">
-        <v>229</v>
+        <v>129</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>189</v>
+      </c>
+      <c r="K55" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B56">
         <v>250534309296</v>
       </c>
-      <c r="C56" t="s">
-        <v>231</v>
+      <c r="C56">
+        <v>480057129</v>
       </c>
       <c r="D56" t="s">
-        <v>232</v>
+        <v>66</v>
       </c>
       <c r="E56" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F56">
         <v>4</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H56" t="s">
-        <v>233</v>
+        <v>130</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>190</v>
+      </c>
+      <c r="K56" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B57">
         <v>250322597856</v>
       </c>
-      <c r="C57" t="s">
-        <v>235</v>
+      <c r="C57">
+        <v>44274840</v>
       </c>
       <c r="D57" t="s">
-        <v>236</v>
+        <v>67</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F57">
         <v>5</v>
       </c>
       <c r="G57" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H57" t="s">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>191</v>
+      </c>
+      <c r="K57" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B58">
         <v>250303951488</v>
       </c>
-      <c r="C58" t="s">
-        <v>239</v>
+      <c r="C58">
+        <v>2065706</v>
       </c>
       <c r="D58" t="s">
-        <v>240</v>
+        <v>68</v>
       </c>
       <c r="E58" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="F58">
         <v>6</v>
       </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H58" t="s">
-        <v>241</v>
+        <v>132</v>
       </c>
       <c r="I58">
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>192</v>
+      </c>
+      <c r="K58" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B59">
         <v>249770017281</v>
       </c>
-      <c r="C59" t="s">
-        <v>243</v>
+      <c r="C59">
+        <v>1330085</v>
       </c>
       <c r="D59" t="s">
-        <v>244</v>
+        <v>69</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F59">
         <v>5</v>
       </c>
       <c r="G59" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H59" t="s">
-        <v>245</v>
+        <v>133</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>193</v>
+      </c>
+      <c r="K59" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B60">
         <v>249692653377</v>
       </c>
-      <c r="C60" t="s">
-        <v>247</v>
+      <c r="C60">
+        <v>507180590</v>
       </c>
       <c r="D60" t="s">
-        <v>248</v>
+        <v>70</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F60">
         <v>3</v>
       </c>
       <c r="G60" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H60" t="s">
-        <v>249</v>
+        <v>134</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>194</v>
+      </c>
+      <c r="K60" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B61">
         <v>250141267584</v>
       </c>
-      <c r="C61" t="s">
-        <v>251</v>
+      <c r="C61">
+        <v>1863589612</v>
       </c>
       <c r="D61" t="s">
-        <v>252</v>
+        <v>71</v>
       </c>
       <c r="E61" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F61">
         <v>5</v>
       </c>
       <c r="G61" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H61" t="s">
-        <v>253</v>
+        <v>135</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>254</v>
+        <v>195</v>
+      </c>
+      <c r="K61" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
